--- a/Question_Set2/Programming skills/Ruby on Rails.xlsx
+++ b/Question_Set2/Programming skills/Ruby on Rails.xlsx
@@ -16,23 +16,71 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You have the two associated models shown below about authors and the books they wrote. Which of the available queries returns the authors who have written at least one book? class Author &amp;lt ApplicationRecord\n has_many :books\n validates :name, presence: true\nend\n class Book &amp;lt ApplicationRecord\n belongs_to :author\nend', 'ques_type': 2, 'options': ['Author.joins(:books).distinct', 'Author.includes(:books).distinct', 'Book.includes(:author)', 'Author.all.includes(:books)'], 'score': 'Author.joins(:books).distinct'}, {'title': "Consider the following routing snippets, and then choose the sentence that is correct.(I)namespace :admin do \nresources :articles, :comments\nend\n (II)scope :admin do \nresources :articles, :comments\nend\n (III)resources :articles, module: 'admin'\nresources :comments, module: 'admin'\n (IV)resources :articles, path: '/admin/articles'\nresources :comments, path: '/admin/articles'", 'ques_type': 2, 'options': ['(I) and (II) are similar, and (III) and (IV) are similar.', '(I) and (III) are similar, and (II) and (IV) are similar.', '(I) and (IV) are similar, and (II) and (III) are similar.', '(I) and (II) are similar, but (III) and (IV) are not valid routes.'], 'score': '(I) and (III) are similar, and (II) and (IV) are similar.'}, {'title': 'Which of the following renders a form partial in Rails?', 'ques_type': 15, 'options': ["&amp;lt%= render partial: 'form', locals: { author: @author } %&amp;gt", "&amp;lt%= render partial: 'form', author: @author %&amp;gt", "&amp;lt%= render 'form', locals: { author: @author } %&amp;gt", "&amp;lt%= render 'form', author: @author %&amp;gt", '&amp;lt% render ‘form’, author: @author %&amp;gt', "&amp;lt% render partial: 'form', locals: { author: @author } %&amp;gt"], 'score': ["&amp;lt%= render partial: 'form', locals: { author: @author } %&amp;gt", "&amp;lt%= render 'form', author: @author %&amp;gt"]}, {'title': 'Which of the following queries will work with the ActiveJob given below? class DailySummaryJob &amp;lt ApplicationJob\n queue_as :default\n def perform(user)\n   DailyDigestMailer.morning_brief(user.email).deliver_now\n end\nend', 'ques_type': 15, 'options': ['DailySummaryJob.perform(User.last)', 'DailySummaryJob.set(wait: 2.seconds).perform_later(User.last)', 'DailySummaryJob.perform_now(User.last)', 'DailySummaryJob.perform_later(User.last)', 'DailySummaryJob.perform(User.last).now', 'DailySummaryJob.perform(User.last).later'], 'score': ['DailySummaryJob.set(wait: 2.seconds).perform_later(User.last)', 'DailySummaryJob.perform_now(User.last)', 'DailySummaryJob.perform_later(User.last)']}]</t>
+    <t>questions = [
+    {
+        "title": "You have the two associated models shown below about authors and the books they wrote. Which of the available queries returns the authors who have written at least one book? class Author &amp;lt ApplicationRecord\n has_many :books\n validates :name, presence: true\nend\n class Book &amp;lt ApplicationRecord\n belongs_to :author\nend",
+        "ques_type": 2,
+        "options": [
+            "Author.joins(:books).distinct",
+            "Author.includes(:books).distinct",
+            "Book.includes(:author)",
+            "Author.all.includes(:books)"
+        ],
+        "score": "Author.joins(:books).distinct"
+    },
+    {
+        "title": "Consider the following routing snippets, and then choose the sentence that is correct.(I)namespace :admin do \nresources :articles, :comments\nend\n (II)scope :admin do \nresources :articles, :comments\nend\n (III)resources :articles, module: 'admin'\nresources :comments, module: 'admin'\n (IV)resources :articles, path: '/admin/articles'\nresources :comments, path: '/admin/articles'",
+        "ques_type": 2,
+        "options": [
+            "(I) and (II) are similar, and (III) and (IV) are similar.",
+            "(I) and (III) are similar, and (II) and (IV) are similar.",
+            "(I) and (IV) are similar, and (II) and (III) are similar.",
+            "(I) and (II) are similar, but (III) and (IV) are not valid routes."
+        ],
+        "score": "(I) and (III) are similar, and (II) and (IV) are similar."
+    },
+    {
+        "title": "Which of the following renders a form partial in Rails?",
+        "ques_type": 15,
+        "options": [
+            "&amp;lt%= render partial: 'form', locals: { author: @author } %&amp;gt",
+            "&amp;lt%= render partial: 'form', author: @author %&amp;gt",
+            "&amp;lt%= render 'form', locals: { author: @author } %&amp;gt",
+            "&amp;lt%= render 'form', author: @author %&amp;gt",
+            "&amp;lt% render \u2018form\u2019, author: @author %&amp;gt",
+            "&amp;lt% render partial: 'form', locals: { author: @author } %&amp;gt"
+        ],
+        "score": [
+            "&amp;lt%= render partial: 'form', locals: { author: @author } %&amp;gt",
+            "&amp;lt%= render 'form', author: @author %&amp;gt"
+        ]
+    },
+    {
+        "title": "Which of the following queries will work with the ActiveJob given below? class DailySummaryJob &amp;lt ApplicationJob\n queue_as :default\n def perform(user)\n   DailyDigestMailer.morning_brief(user.email).deliver_now\n end\nend",
+        "ques_type": 15,
+        "options": [
+            "DailySummaryJob.perform(User.last)",
+            "DailySummaryJob.set(wait: 2.seconds).perform_later(User.last)",
+            "DailySummaryJob.perform_now(User.last)",
+            "DailySummaryJob.perform_later(User.last)",
+            "DailySummaryJob.perform(User.last).now",
+            "DailySummaryJob.perform(User.last).later"
+        ],
+        "score": [
+            "DailySummaryJob.set(wait: 2.seconds).perform_later(User.last)",
+            "DailySummaryJob.perform_now(User.last)",
+            "DailySummaryJob.perform_later(User.last)"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +104,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +404,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
